--- a/diplomovka/moja_praca/xml_data/book_moje.xlsx
+++ b/diplomovka/moja_praca/xml_data/book_moje.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repositories\FHI\diplomovka\moja_praca\xml_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3CF186-29A6-4FC1-A33B-43FEAAD03A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96246D1A-1DCA-4883-92EA-43FC8CFB8E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14955" yWindow="5310" windowWidth="19200" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="143">
   <si>
     <t>id</t>
   </si>
@@ -254,31 +254,6 @@
   </si>
   <si>
     <t>Slovart</t>
-  </si>
-  <si>
-    <r>
-      <t>Niektoré z temných stránok nového demokratického režimu - drogy a prostitúcia - na seba nedali dlho čakať, prejavili sa krátko po revolúcii. Chlapci z oddelenia vrážd sa s nimi stretávali bežne aj predtým, no v menej drastickej podobe. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t>Dnes nemali šťastie, vrah sa činil, nešetril ani ich, ani ju - mladú pouličnú prostitútku dopichal, podrezal a naaranžoval jej mŕtvolu tak, akoby ležala vystavená na márach. Ale bola naozaj podrezaná?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t> Naozaj ju vystavil, aby im chcel zanechať nejaký odkaz? Zahráva sa s nimi?</t>
-    </r>
   </si>
   <si>
     <t>Smrť na druhom brehu</t>
@@ -605,25 +580,187 @@
     <t>Prvá dáma anglickej detektívky nám vo svojom románe z roku 1927 predstavila Hercula Poirota v celkom inom, prekvapivom svetle: slávny detektív v ňom namiesto zvyčajného vyšetrovania prípadu vraždy vo vidieckom sídle zvádza súboj s mimoriadne nebezpečnou medzinárodnou organizáciou, usilujúcou sa ovládnuť svet.
 Každý osve predstavoval obrovskú hrozbu. Keď sa spojili, stali sa prakticky neporaziteľnými. Členovia Veľkej štvorky - geniálny Číňan, americký milionár, francúzska vedkyňa a nepolapiteľný majster prestrojení – zosnovali zločinecké sprisahanie takých obludných rozmerov, že šokuje i samého Poirota. V súboji s nimi mu pomáhajú jeho jedinečné deduktívne schopnosti, no čím dlhšie sa ich snaží vystopovať, tým jasnejšie sa ukazuje, že toto môže byť jeho posledný, osudný prípad...</t>
   </si>
+  <si>
+    <t>Niektoré z temných stránok nového demokratického režimu - drogy a prostitúcia - na seba nedali dlho čakať, prejavili sa krátko po revolúcii. Chlapci z oddelenia vrážd sa s nimi stretávali bežne aj predtým, no v menej drastickej podobe. Dnes nemali šťastie, vrah sa činil, nešetril ani ich, ani ju - mladú pouličnú prostitútku dopichal, podrezal a naaranžoval jej mŕtvolu tak, akoby ležala vystavená na márach. Ale bola naozaj podrezaná? Naozaj ju vystavil, aby im chcel zanechať nejaký odkaz? Zahráva sa s nimi?</t>
+  </si>
+  <si>
+    <t>Eiffel</t>
+  </si>
+  <si>
+    <t>Nicolas d'Estienne d'Orves</t>
+  </si>
+  <si>
+    <t>Spoločenská beletria</t>
+  </si>
+  <si>
+    <t>9788056630006</t>
+  </si>
+  <si>
+    <t>Lindeni,</t>
+  </si>
+  <si>
+    <t>Píše sa rok 1886 a Paríž sa pripravuje na Svetovú výstavu. Gustave Eiffel má ohromiť Francúzsko dosiaľ nevídaným monumentom, 300-metrovou vežou, ktorá bude najvyššou na svete. Je to však jediný dôvod posadnutosti kovovou stavbou, ktorá núti „básnika železa“ neúnavne a bez prestávky pracovať, rysovať plány a hľadať pre ňu dokonalý tvar?
+Ako sa hovorí, „cherchez la femme“ - za všetkým hľadaj ženu. Od opätovného stretnutia so svojou osudovou, dávno stratenou láskou akoby sa Adrienne vtelila do Eiffelovho životného projektu. Je to krivka jej chrbta, ktorá ho inšpirovala, veľké A, ktoré sa bude navždy týčiť k parížskemu nebu.</t>
+  </si>
+  <si>
+    <t>Pán prsteňov III. - Návrat kráľa</t>
+  </si>
+  <si>
+    <t>J.R.R. Tolkien</t>
+  </si>
+  <si>
+    <t>9788055606309</t>
+  </si>
+  <si>
+    <t>Pán prsteňov je rozprávkovou históriou Vojny o Prsteň, rozprávaním o boji slobodných národov Stredozeme proti Tieňu a o putovaní Hobita Froda, ktorý sa vyberie zachrániť svet. Po rozbití Spoločenstva Prsteňa a príchode Veľkej tmy začína Vojna o Prsteň, ktorá má rozhodnúť o všetkom...</t>
+  </si>
+  <si>
+    <t>Kaviareň v Kodani</t>
+  </si>
+  <si>
+    <t>Julie Caplin</t>
+  </si>
+  <si>
+    <t>9788080900946</t>
+  </si>
+  <si>
+    <t>Pripravte si šálku voňavej horúcej čokolády, natiahnite si hrubé ponožky, schúľte sa do kresla a vydajte sa spolu s hlavnou hrdinkou Katie do Kodane. Čaká vás prekvapivá cesta za povestným dánskym šťastím a... romantickou sladkou láskou.</t>
+  </si>
+  <si>
+    <t>Hotelík na Islande</t>
+  </si>
+  <si>
+    <t>9788080902650</t>
+  </si>
+  <si>
+    <t>Cosmopolis</t>
+  </si>
+  <si>
+    <t>Príbeh z krajiny ľadu a gejzírov vám ukáže, že cesta za pravou láskou je často vydláždená sklamaniami, ale aj to, že šikovný človek i napriek bolestivým zakopnutiam svoje miesto pod slnkom vždy nakoniec nájde.</t>
+  </si>
+  <si>
+    <t>Ako si získavať priateľov a pôsobiť na ľudí</t>
+  </si>
+  <si>
+    <t>Sebarozvoj</t>
+  </si>
+  <si>
+    <t>Dale Carnegie</t>
+  </si>
+  <si>
+    <t>9788055149134</t>
+  </si>
+  <si>
+    <t>Príroda,</t>
+  </si>
+  <si>
+    <t>Dale Carnegie ponúka vo svojich knihách, ktoré sa stali svetovými bestsellermi, praktické návody, ktoré môžete začať používať hneď zajtra. Táto knižka hovorí o veľkom tajomstve správneho prístupu k ľuďom, ako urobiť dobrý dojem, viesť dialóg, ako si nenarobiť nepriateľov a získať si druhých na spoluprácu.</t>
+  </si>
+  <si>
+    <t>Ako sa zbaviť starostí a začať žiť</t>
+  </si>
+  <si>
+    <t>9788055149240</t>
+  </si>
+  <si>
+    <t>Starosti vyciciavajú z človeka energiu a nedovoľujú mu premýšľať. Môžeme urobiť niečo, aby sme sa ich zbavili? Dale Carnegie v tejto knihe dokazuje, že je to možné. Ponúka overené techniky, ktoré už miliónom ľudí na celom svete pomohli zmeniť ich život. Pomocou praktických návodov sa aj vy naučíte riešiť problematické situácie, využiť kritiku vo svoj prospech či vyhnúť sa citovému rozrušeniu. Autor vám poradí, ako si vypestovať duševný postoj, z ktorého pramení pokoj a šťastie, ale aj pracovné návyky, ktoré pomáhajú zabraňovať únave.</t>
+  </si>
+  <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Andrew Morton</t>
+  </si>
+  <si>
+    <t>Životopisy</t>
+  </si>
+  <si>
+    <t>Universum</t>
+  </si>
+  <si>
+    <t>Kniha Diana, její skutečný příběh po svém prvním vydání v roce 1992 navždy změnila způsob, jakým veřejnost pohlížela na britskou monarchii. Na prvním místě žebříčku bestsellerů deníku New York Times se stala unikátní literární klasikou nejen pro svůj výbušný obsah, ale i proto, že se Diana na publikaci osobně podílela.</t>
+  </si>
+  <si>
+    <t>Steve Jobs</t>
+  </si>
+  <si>
+    <t>Walter Isaacson</t>
+  </si>
+  <si>
+    <t>Skutočnú pravdu o ikone úspechu novodobej technologickej éry a jeho fenomenálnej spoločnosti Apple sa dozvedia čitatelia v slovenskom vydaní autobiografickej knihy STEVE JOBS, ktorú vydáva vydavateľstvo Eastone Books vo svojej edícii Business Class. Steve Jobs významne ovplyvnil vývoj osobných počítačov, kreslených filmov, telefónov, hudby, tabletov a digitálnej tlače.
+Autorom unikátneho životopisu Stevea Jobsa je renomovaný novinár a publicista Walter Isaacson, bývalý predseda predstavenstva a CEO televíznej stanice CNN a niekdajší šéfredaktor časopisu Time Magazine.
+Médiá sa neustále predbiehajú v tom, kto prvý prinesie „nové a zaručené“ informácie o tejto „technologickej popstar“ a jeho trendy určujúcej spoločnosti Apple. Steve Jobs je prezentovaný ako charizmatický vizionár, talentovaný podnikateľ a vynaliezavý inovátor s citom pre trhové trendy. Je oslavovaný a zatracovaný zároveň. Neustály informačný „boom“ okolo osoby Stevea Jobsa a spoločnosti Apple neraz sprevádzajú aj polopravdy, mýty a účelové dezinformácie. Jedno je však nesporné. Na hviezdnom úspechu v súčasnosti najhodnotnejšej IT firmy na svete sa najväčšou mierou podieľal práve Steve Jobs. On jediný poznal skutočnú pravdu v pozadí pomyselného „Apple kódu“.
+Autor Walter Isaacson ponúka v knihe s prostým názvom STEVE JOBS výnimočný pohľad na Jobsov pracovný a súkromný život zároveň. Knižný portrét je výsledkom trojročnej práce založenej na exkluzívnych rozhovoroch a stretnutiach so samotným Jobsom, s členmi jeho rodiny, Jobsovými kolegami z Applu, ako aj s jeho konkurentmi.
+Ak teda patríte k oddaným fanúšikom všetkého, čo má na sebe logo odhryznutého jabĺčka, ak premýšľate o vhodnom dare pre obchodných partnerov alebo pre niekoho blízkeho, kto je vyznávačom kultovej značky Apple alebo vás jednoducho len priťahujú príbehy úspešných biznismenov, ich vizionárske rozmýšľanie a nekonvenčné postoje, určite by ste si túto knižnú udalosť roka nemali nechať ujsť.
+Prečítajte si článok o Steveovi Jobsovi a o jeho dlho očakávanom životopise na našom blogu!
+Rozsah strán: 546 +16 strán obrazovej prílohy</t>
+  </si>
+  <si>
+    <t>Šlabikár financií pre neziskovky</t>
+  </si>
+  <si>
+    <t>9788097029135</t>
+  </si>
+  <si>
+    <t>Publikácia, ktorú práve držíte v rukách je určená všetkým, ktorí chcú založiť niektorý z typov neziskových organizácií a tiež tým, ktorí v rámci existujúcich prichádzajú do kontaktu s finančnými prostriedkami.</t>
+  </si>
+  <si>
+    <t>Malý princ</t>
+  </si>
+  <si>
+    <t>Antoine De Saint-Exupéry</t>
+  </si>
+  <si>
+    <t>klasika</t>
+  </si>
+  <si>
+    <t>9788010034666</t>
+  </si>
+  <si>
+    <t>Mladé letá</t>
+  </si>
+  <si>
+    <t>Pôvabná knižka nielen pre deti, ale pre všetkých, ktorí chcú deťom porozumieť. Toto dielko dosiahlo svetový úspech a patrí do zlatého fondu svetovej literatúry. Jeho hodnota a krása nespočíva len v peknom rozprávkovom príbehu, ale hlavne v myšlienkach, ktoré ako vzácne kamienky vytvárajú obraz ľudských vlastností...
+Saint-Exupéry svoju knižku s čistým detským pohľadom na svet venoval najlepšiemu priateľovi. Veď všetci dospelí boli najprv deťmi. Ale máloktorý z nich sa na to pamätá.</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Nové vydanie románu 1984 - jedného z najznámejších diel svetovej literatúry. Spája v sebe prvky spoločensko-politického a vedecko-fantastického románu. Je obžalobou komunistickej diktatúry, ktorá roku 1984 ovládla všetko, vrátane ľudského myslenia. Román opisuje osudy čestného, citlivého a uvažujúceho jednotlivca (Winstona Smitha), ktorý sa vzoprie systému, za čo platí krutú daň.</t>
+  </si>
+  <si>
+    <t>Friedrich Nietzsche</t>
+  </si>
+  <si>
+    <t>Filozofia</t>
+  </si>
+  <si>
+    <t>Mimo dobro a zlo</t>
+  </si>
+  <si>
+    <t>OIKOYMENH</t>
+  </si>
+  <si>
+    <t>Německý originál knihy Mimo dobro a zlo. Předehra k filosofii budoucnosti (Jenseits von Gut und Böse. Vorspiel einer Philosophie der Zukunft) byl poprvé publikován v Lipsku roku 1886 autorovým vlastním nákladem. Kniha tedy vyšla bezprostředně po Tak pravil Zarathustra (1883-1885), ale materiál k ní shromažďoval Nietzsche už od začátku 80. let, čerpaje z poznámek zapsaných dokonce i před vydáním Radostné vědy (1882). </t>
+  </si>
+  <si>
+    <t>Co znamená myslet?</t>
+  </si>
+  <si>
+    <t>Martin Heidegger</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -657,14 +794,6 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color rgb="FF000000"/>
@@ -673,26 +802,19 @@
       <charset val="238"/>
     </font>
     <font>
-      <b/>
-      <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -714,56 +836,47 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hypertextové prepojenie" xfId="1" builtinId="8"/>
@@ -1045,16 +1158,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:N29"/>
+  <dimension ref="B3:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" customWidth="1"/>
     <col min="5" max="5" width="26.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
@@ -1063,11 +1176,12 @@
     <col min="10" max="10" width="20.85546875" customWidth="1"/>
     <col min="11" max="11" width="12.5703125" customWidth="1"/>
     <col min="12" max="12" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
     <col min="14" max="14" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -1108,732 +1222,1204 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5">
+    <row r="5" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
         <v>1</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="16" t="s">
+      <c r="E5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>360</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="10">
         <v>2015</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="10">
         <v>4.7</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6">
+    <row r="6" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="10">
         <v>712</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="10">
         <v>2015</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="12">
         <v>16.11</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="10">
         <v>4.8</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B7">
+    <row r="7" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
         <v>3</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>165</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="10">
         <v>2022</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="20"/>
-      <c r="M7" s="18" t="s">
+      <c r="L7" s="12"/>
+      <c r="M7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="10">
         <v>4.5</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="8" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
         <v>4</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>200</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="10">
         <v>2020</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="16">
         <v>16.559999999999999</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="10">
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9">
+    <row r="9" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
         <v>5</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="10">
         <v>256</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="10">
         <v>2022</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="K9" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="13" t="s">
+      <c r="M9" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="10">
         <v>4.7</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="30" x14ac:dyDescent="0.25">
-      <c r="B10">
+    <row r="10" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
         <v>6</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="10">
         <v>315</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="10">
         <v>2017</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="M10" s="13" t="s">
+      <c r="M10" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="10">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B11">
+    <row r="11" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
         <v>7</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <v>296</v>
       </c>
       <c r="I11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="10">
         <v>2016</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="10">
         <v>12.79</v>
       </c>
-      <c r="M11" s="13" t="s">
+      <c r="M11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="10">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="12" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12">
+    <row r="12" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
         <v>8</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>424</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="10">
         <v>2020</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="10">
         <v>17.809999999999999</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="10">
         <v>4.3</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B13">
+    <row r="13" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="10">
         <v>9</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="10">
         <v>296</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L13" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="10">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="14" spans="2:14" ht="90" x14ac:dyDescent="0.25">
-      <c r="B14">
+    <row r="14" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
         <v>10</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="10">
         <v>8072267698</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="10">
         <v>360</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="10">
         <v>2003</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="10">
         <v>9.42</v>
       </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="B15">
+    <row r="15" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
         <v>11</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="10">
         <v>352</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="10">
         <v>2022</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="14">
         <v>12.75</v>
       </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="N15" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>12</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="N15">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>12</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="D16" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="G16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="10">
         <v>320</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="10">
         <v>2016</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="10">
         <v>13.21</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>13</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="N16">
-        <v>4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>13</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" t="s">
+      <c r="F17" s="15"/>
+      <c r="G17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="10">
         <v>312</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="10">
         <v>2009</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="10">
         <v>14.95</v>
       </c>
-      <c r="M17" s="7" t="s">
+      <c r="M17" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N17" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>14</v>
+      </c>
+      <c r="C18" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="N17" s="24">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D18" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="G18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="10">
         <v>232</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="10">
         <v>2020</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="10">
+        <v>13.9</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="L18">
-        <v>13.9</v>
-      </c>
-      <c r="M18" s="7" t="s">
+      <c r="N18" s="10">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>15</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N18">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="B19">
+      <c r="D19" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="H19" s="10">
         <v>184</v>
       </c>
       <c r="I19" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="10">
         <v>2019</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L19">
+      <c r="K19" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="L19" s="10">
         <v>10.9</v>
       </c>
-      <c r="M19" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20">
+      <c r="M19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="10">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
         <v>16</v>
       </c>
-      <c r="C20" s="8"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21">
+      <c r="C20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="10">
+        <v>256</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="10">
+        <v>2022</v>
+      </c>
+      <c r="K20" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="10">
+        <v>14.49</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="10">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22">
+      <c r="C21" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="10">
+        <v>432</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2012</v>
+      </c>
+      <c r="K21" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" s="10">
+        <v>14.46</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N21" s="10">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7">
         <v>18</v>
       </c>
-      <c r="C22" s="8"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23">
+      <c r="C22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="10">
+        <v>352</v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="10">
+        <v>2020</v>
+      </c>
+      <c r="K22" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="10">
+        <v>13.99</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="N22" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7">
         <v>19</v>
       </c>
-      <c r="C23" s="8"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24">
+      <c r="C23" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23" s="10">
+        <v>344</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="10">
+        <v>2022</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="L23" s="10">
+        <v>14.17</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="N23" s="10">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7">
         <v>20</v>
       </c>
-      <c r="C24" s="8"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25">
+      <c r="C24" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24" s="10">
+        <v>256</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="10">
+        <v>2016</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24" s="10">
+        <v>12.9</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N24" s="10">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7">
         <v>21</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26">
+      <c r="C25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="7">
+        <v>320</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="7">
+        <v>2016</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="L25" s="7">
+        <v>12.9</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7">
         <v>22</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B27">
+      <c r="C26" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F26" s="2">
+        <v>9788024275925</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="7">
+        <v>400</v>
+      </c>
+      <c r="I26" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B28">
+      <c r="J26" s="7">
+        <v>2022</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="L26" s="7">
+        <v>22.58</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="N26" s="7">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7">
+        <v>23</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="2">
+        <v>9788081091940</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27" s="7">
+        <v>562</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="7">
+        <v>2011</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="L27" s="7">
+        <v>22.55</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="N27" s="7">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="7">
         <v>24</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B29">
+      <c r="C28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="7">
+        <v>137</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="7">
+        <v>2022</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L28" s="7">
+        <v>14.2</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="7">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="7">
         <v>25</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="7">
+        <v>253</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="7">
+        <v>2019</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L29" s="7">
+        <v>4.79</v>
+      </c>
+      <c r="M29" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="N29" s="7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="7">
+        <v>26</v>
+      </c>
+      <c r="C30" s="5">
+        <v>1984</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F30" s="7">
+        <v>9788055610832</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="7">
+        <v>253</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="7">
+        <v>2013</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L30" s="7">
+        <v>12.95</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" s="7">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <v>27</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="7">
+        <v>9788072985852</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H31" s="7">
+        <v>223</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="7">
+        <v>2021</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="L31" s="7">
+        <v>16.36</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N31" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <v>28</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7">
+        <v>9788072984947</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="7">
+        <v>60</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+    </row>
+    <row r="33" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <v>29</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:14" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I6" r:id="rId1" display="https://www.martinus.sk/l?categories%5B0%5D=6003&amp;bindings%5B%5D=294829" xr:uid="{2D8F8964-5C85-4F09-A1CF-67FB51ED65A2}"/>
-    <hyperlink ref="E5" r:id="rId2" display="https://www.martinus.sk/l?categories%5B0%5D=6007" xr:uid="{33694406-E44E-4270-BD26-0F4C804C713D}"/>
-    <hyperlink ref="E6" r:id="rId3" display="https://www.martinus.sk/l?categories%5B0%5D=6007" xr:uid="{A6572C2B-4390-4F31-A4AE-8964F0992BED}"/>
-    <hyperlink ref="D7" r:id="rId4" display="https://www.martinus.sk/authors/jaroslava-lukacovicova" xr:uid="{0F7A3C37-2A6B-478B-B4F8-B9CD58AB631B}"/>
-    <hyperlink ref="E7" r:id="rId5" display="https://www.martinus.sk/l?categories%5B0%5D=6206" xr:uid="{9685794C-8224-4F19-AFA5-48B9090E5B9E}"/>
-    <hyperlink ref="I7" r:id="rId6" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{CC9C7C2C-5F9E-4078-83C5-60840D6C5CBA}"/>
-    <hyperlink ref="K7" r:id="rId7" display="https://www.martinus.sk/knihy/vydavatelstvo/sauno" xr:uid="{62CC61F7-B2A9-4F58-84A5-32FCA5D45468}"/>
-    <hyperlink ref="D8" r:id="rId8" display="https://www.martinus.sk/authors/karolina-fourova" xr:uid="{50F6B1CC-EBBF-495E-B841-8B9E721D7E54}"/>
-    <hyperlink ref="E8" r:id="rId9" display="https://www.martinus.sk/l?categories%5B0%5D=6742" xr:uid="{9B998212-383B-4BCC-894A-D35D638EF9A7}"/>
-    <hyperlink ref="I8" r:id="rId10" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{92BB2075-E4B9-4A9E-B0E9-F74FE3732CBF}"/>
-    <hyperlink ref="K8" r:id="rId11" display="https://www.martinus.sk/knihy/vydavatelstvo/esence" xr:uid="{C36BEC59-B843-4D2E-A723-8E4F9D981908}"/>
-    <hyperlink ref="D9" r:id="rId12" display="https://www.martinus.sk/authors/arthur-c-clarke" xr:uid="{02F4ED55-3AC4-44D1-B121-D54364F618B5}"/>
-    <hyperlink ref="E9" r:id="rId13" display="https://www.martinus.sk/l?categories%5B0%5D=6087" xr:uid="{0EF1065D-90D7-4DFE-9433-15B41D48E584}"/>
-    <hyperlink ref="I9" r:id="rId14" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{35CA28DD-856A-4A37-B417-562D4CE908EF}"/>
-    <hyperlink ref="K9" r:id="rId15" display="https://www.martinus.sk/knihy/vydavatelstvo/argo" xr:uid="{089649F1-0536-4F2A-8D93-7C1E264A9F57}"/>
-    <hyperlink ref="D10" r:id="rId16" display="https://www.martinus.sk/authors/arthur-c-clarke" xr:uid="{66CF7FBA-ACDB-40DB-8F86-9F60FBE43271}"/>
-    <hyperlink ref="E10" r:id="rId17" display="https://www.martinus.sk/l?categories%5B0%5D=6087" xr:uid="{29EA1A18-F390-4359-98C8-BE1C27726F65}"/>
-    <hyperlink ref="I10" r:id="rId18" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{DF96DC1A-8FD9-4317-B335-7682D5CAB953}"/>
-    <hyperlink ref="K10" r:id="rId19" display="https://www.martinus.sk/knihy/vydavatelstvo/argo" xr:uid="{66C2F274-3A7D-476C-8E2B-FD95DA08C225}"/>
-    <hyperlink ref="E11" r:id="rId20" display="https://www.martinus.sk/l?categories%5B0%5D=6746" xr:uid="{7A0F616A-87BD-4107-ACB3-91C047167A4C}"/>
-    <hyperlink ref="D12" r:id="rId21" display="https://www.martinus.sk/authors/miroslav-virius" xr:uid="{7BF11037-3CD0-484D-AE72-CD2495FA06F9}"/>
-    <hyperlink ref="E12" r:id="rId22" display="https://www.martinus.sk/l?categories%5B0%5D=6746" xr:uid="{C7F405E6-44D1-44D9-8CFE-916360980146}"/>
-    <hyperlink ref="I11" r:id="rId23" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{B21D9A00-AB56-48E5-887D-120313EF0A61}"/>
-    <hyperlink ref="K12" r:id="rId24" display="https://www.martinus.sk/knihy/vydavatelstvo/grada" xr:uid="{B7DE032A-95C8-4303-93D0-99B933F69D0E}"/>
-    <hyperlink ref="D11" r:id="rId25" display="https://www.martinus.sk/authors/michaela-sebokova-vannini" xr:uid="{B2A83CA6-CF26-47DC-8EE6-A364602C35D5}"/>
-    <hyperlink ref="D13" r:id="rId26" display="https://www.martinus.sk/authors/mike-shema" xr:uid="{AC5D4B02-91AC-4F87-BB0F-AAA92AB3DD23}"/>
-    <hyperlink ref="E13" r:id="rId27" display="https://www.martinus.sk/l?categories%5B0%5D=6746" xr:uid="{B01612F5-43D3-4D99-BB96-EB5D02E48543}"/>
-    <hyperlink ref="K13" r:id="rId28" display="https://www.martinus.sk/knihy/vydavatelstvo/syngress" xr:uid="{C07B9D24-B0A6-4FA6-8EBC-48CA57B9B426}"/>
-    <hyperlink ref="D14" r:id="rId29" display="https://www.martinus.sk/authors/mike-shema" xr:uid="{35722ABC-5625-4698-B358-CADD537F1BFF}"/>
-    <hyperlink ref="E14" r:id="rId30" display="https://www.martinus.sk/l?categories%5B0%5D=6746" xr:uid="{BC8F3238-47C6-4D5F-AE83-5FF77F87CFCA}"/>
-    <hyperlink ref="K14" r:id="rId31" display="https://www.martinus.sk/knihy/vydavatelstvo/computer-press" xr:uid="{042C6932-DFC1-41CE-B963-C4DEC92992D5}"/>
-    <hyperlink ref="C15" r:id="rId32" display="https://www.martinus.sk/knihy/najpredavanejsie/" xr:uid="{4E467BCD-7CAA-4B16-B93D-1979C3186325}"/>
-    <hyperlink ref="D15" r:id="rId33" display="https://www.martinus.sk/authors/dominik-dan" xr:uid="{C445ED91-1C82-45A0-8C82-A68D69847B89}"/>
-    <hyperlink ref="E15" r:id="rId34" display="https://www.martinus.sk/l?categories%5B0%5D=6079" xr:uid="{B858BC7B-BE1C-4475-B8F1-02FD222CF1B1}"/>
-    <hyperlink ref="I15" r:id="rId35" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{3AFD5F1D-7011-4FD0-B6FB-DABCB56F0EB1}"/>
-    <hyperlink ref="K15" r:id="rId36" display="https://www.martinus.sk/knihy/vydavatelstvo/slovart" xr:uid="{3AEC66EB-4D3E-4150-A7C3-E96ECDE8D4A8}"/>
-    <hyperlink ref="D16" r:id="rId37" display="https://www.martinus.sk/authors/dominik-dan" xr:uid="{59AC70E4-002B-40A8-9574-62CAD4A3C68D}"/>
-    <hyperlink ref="E16" r:id="rId38" display="https://www.martinus.sk/l?categories%5B0%5D=6079" xr:uid="{819C196A-DAE2-4523-9D46-A0BC6B3A68A2}"/>
-    <hyperlink ref="I16" r:id="rId39" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{568E9290-4FE6-4CFF-AA87-F59A2E6E2BBE}"/>
-    <hyperlink ref="K16" r:id="rId40" display="https://www.martinus.sk/knihy/vydavatelstvo/slovart" xr:uid="{329758DE-F580-4D6A-8E63-F2E400F00E52}"/>
-    <hyperlink ref="D17" r:id="rId41" display="https://www.martinus.sk/authors/dominik-dan" xr:uid="{95D86543-DDF4-4A2C-BC0D-2F2EA2FAFB99}"/>
-    <hyperlink ref="E17" r:id="rId42" display="https://www.martinus.sk/l?categories%5B0%5D=6079" xr:uid="{3CD23C94-FC85-4E83-AFCB-383F72E0775F}"/>
-    <hyperlink ref="I17" r:id="rId43" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{F4AB198E-9B02-49E0-8611-9B18173DB50F}"/>
-    <hyperlink ref="K17" r:id="rId44" display="https://www.martinus.sk/knihy/vydavatelstvo/slovart" xr:uid="{3103DBC6-BB4C-4268-8185-21DD3C7F3F20}"/>
-    <hyperlink ref="D18" r:id="rId45" display="https://www.martinus.sk/authors/agatha-christie" xr:uid="{6DA68831-43D9-40F2-B652-2DF7C726ECB6}"/>
-    <hyperlink ref="E18" r:id="rId46" display="https://www.martinus.sk/l?categories%5B0%5D=6079" xr:uid="{C805E710-3A64-40EB-87D0-D61D50936A1C}"/>
-    <hyperlink ref="I18" r:id="rId47" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{285126BF-D592-43B0-BC23-6477D87088A1}"/>
-    <hyperlink ref="K18" r:id="rId48" display="https://www.martinus.sk/knihy/vydavatelstvo/slovensky-spisovatel" xr:uid="{D8758F0F-4F84-4EB8-9D05-3175802C7944}"/>
-    <hyperlink ref="D19" r:id="rId49" display="https://www.martinus.sk/authors/agatha-christie" xr:uid="{D8B8E9A7-068F-4189-A594-232DAC22F5F0}"/>
-    <hyperlink ref="E19" r:id="rId50" display="https://www.martinus.sk/l?categories%5B0%5D=6079" xr:uid="{5EE9B078-77DB-4B36-828B-D163EDCB0194}"/>
-    <hyperlink ref="I19" r:id="rId51" display="https://www.martinus.sk/l?categories%5B0%5D=6212&amp;bindings%5B%5D=294829" xr:uid="{94999BBA-3E34-4513-9FA3-D54463BA76D9}"/>
-    <hyperlink ref="K19" r:id="rId52" display="https://www.martinus.sk/knihy/vydavatelstvo/slovensky-spisovatel" xr:uid="{4E0434D9-49DE-4DB9-8992-7CF8CBED6408}"/>
+    <hyperlink ref="K21" r:id="rId1" display="https://www.martinus.sk/knihy/vydavatelstvo/slovart" xr:uid="{4AE8D525-7770-4F34-9A04-5166B871DE3E}"/>
+    <hyperlink ref="D22" r:id="rId2" display="https://www.martinus.sk/authors/julie-caplin" xr:uid="{C83DB2C8-AAF3-44FC-BC5A-7FBBFFC2C4EF}"/>
+    <hyperlink ref="E22" r:id="rId3" display="https://www.martinus.sk/l?categories%5B0%5D=6069" xr:uid="{8B414675-27EA-4E3C-B85A-2940ED922D42}"/>
+    <hyperlink ref="I22" r:id="rId4" display="https://www.martinus.sk/l?categories%5B0%5D=6069&amp;bindings%5B%5D=294831" xr:uid="{7A9CD9F2-BC97-45A0-977C-4C7FC92C883C}"/>
+    <hyperlink ref="K22" r:id="rId5" display="https://www.martinus.sk/knihy/vydavatelstvo/grada" xr:uid="{80E37186-57D7-4907-8AFE-AA84AA625028}"/>
+    <hyperlink ref="D23" r:id="rId6" display="https://www.martinus.sk/authors/julie-caplin" xr:uid="{5DD363A3-DDC7-4A52-ACE7-26DB23B81606}"/>
+    <hyperlink ref="E23" r:id="rId7" display="https://www.martinus.sk/l?categories%5B0%5D=6069" xr:uid="{2F017241-EBD4-475E-8CD3-3AB23E4CAC03}"/>
+    <hyperlink ref="I23" r:id="rId8" display="https://www.martinus.sk/l?categories%5B0%5D=6069&amp;bindings%5B%5D=294831" xr:uid="{750A119C-5622-4AD1-BABC-C7D4A2E08404}"/>
+    <hyperlink ref="K23" r:id="rId9" display="https://www.martinus.sk/knihy/vydavatelstvo/cosmopolis" xr:uid="{74D1E67E-3EFF-46DF-BC2D-530DD967C185}"/>
+    <hyperlink ref="E24" r:id="rId10" display="https://www.martinus.sk/l?categories%5B0%5D=6476" xr:uid="{8E198BD9-F862-4619-855F-F7F55324B3A9}"/>
+    <hyperlink ref="D24" r:id="rId11" display="https://www.martinus.sk/authors/dale-carnegie" xr:uid="{D63CF761-A382-4E55-A0EC-8A193564907F}"/>
+    <hyperlink ref="K24" r:id="rId12" display="https://www.martinus.sk/knihy/vydavatelstvo/priroda" xr:uid="{66EFAF95-3046-4C30-B9CF-2C50B90D7CEE}"/>
+    <hyperlink ref="D25" r:id="rId13" display="https://www.martinus.sk/authors/dale-carnegie" xr:uid="{261C3ABB-19A4-4FCB-8A4A-E376DB4E5A9E}"/>
+    <hyperlink ref="E25" r:id="rId14" display="https://www.martinus.sk/l?categories%5B0%5D=6476" xr:uid="{7E851D28-B38C-4486-BBE0-A9B23A67B948}"/>
+    <hyperlink ref="K25" r:id="rId15" display="https://www.martinus.sk/knihy/vydavatelstvo/priroda" xr:uid="{B22447E8-7350-4F51-BF2B-1EB3FD677640}"/>
+    <hyperlink ref="D26" r:id="rId16" display="https://www.martinus.sk/authors/andrew-morton" xr:uid="{E523F735-1118-4C08-A6F4-B9E4BA4477DB}"/>
+    <hyperlink ref="E26" r:id="rId17" display="https://www.martinus.sk/l?categories%5B0%5D=7890" xr:uid="{A878716B-1ADC-4ADA-AC58-5D3F008B66C2}"/>
+    <hyperlink ref="K26" r:id="rId18" display="https://www.martinus.sk/knihy/vydavatelstvo/universum" xr:uid="{6AEDB845-5D33-4CF9-976A-0C76BF6667F3}"/>
+    <hyperlink ref="D27" r:id="rId19" display="https://www.martinus.sk/authors/walter-isaacson" xr:uid="{1CA5D7C1-7B5A-4956-8D08-34F62937B5FE}"/>
+    <hyperlink ref="E27" r:id="rId20" display="https://www.martinus.sk/l?categories%5B0%5D=7890" xr:uid="{B65E0675-2FBF-481D-B3F3-3D4ECB47A8D3}"/>
+    <hyperlink ref="K27" r:id="rId21" display="https://www.martinus.sk/knihy/vydavatelstvo/eastone-books" xr:uid="{9A22C79F-A6FC-4FA1-A793-88B96616340E}"/>
+    <hyperlink ref="D28" r:id="rId22" display="https://www.martinus.sk/authors/jaroslava-lukacovicova" xr:uid="{643C2BB3-7B63-41B0-B06D-91B180FA1318}"/>
+    <hyperlink ref="K28" r:id="rId23" display="https://www.martinus.sk/knihy/vydavatelstvo/sauno" xr:uid="{CF996D13-EC9E-441E-9D8F-D91BF2F658B0}"/>
+    <hyperlink ref="C29" r:id="rId24" display="https://www.martinus.sk/knihy/najpredavanejsie/" xr:uid="{DDACB427-6565-4B73-8743-459F03F58913}"/>
+    <hyperlink ref="D29" r:id="rId25" display="https://www.martinus.sk/authors/antoine-de-saint-exupery-3" xr:uid="{4A68BEB7-5B5A-4A3D-9247-7B3E07F37458}"/>
+    <hyperlink ref="K29" r:id="rId26" display="https://www.martinus.sk/knihy/vydavatelstvo/spn-mlade-leta" xr:uid="{96263DF7-14E7-4D9D-AF05-192652026D3B}"/>
+    <hyperlink ref="D30" r:id="rId27" display="https://www.martinus.sk/authors/george-orwell" xr:uid="{DFABF9BA-8DB8-4DDA-97D0-DEB2B4A04AC7}"/>
+    <hyperlink ref="K30" r:id="rId28" display="https://www.martinus.sk/knihy/vydavatelstvo/slovart" xr:uid="{93247411-9A71-475F-9C91-21807D66FEB9}"/>
+    <hyperlink ref="D31" r:id="rId29" display="https://www.martinus.sk/authors/friedrich-nietzsche" xr:uid="{F6003EC7-52FA-4019-BAA1-42C4108DA753}"/>
+    <hyperlink ref="E31" r:id="rId30" display="https://www.martinus.sk/l?categories%5B0%5D=6308" xr:uid="{7B11D5EC-7FEB-4D45-8214-AE244C6559F7}"/>
+    <hyperlink ref="I31" r:id="rId31" display="https://www.martinus.sk/l?categories%5B0%5D=6308&amp;bindings%5B%5D=294829" xr:uid="{837CB111-0739-4A63-95DD-539FDF849E50}"/>
+    <hyperlink ref="K31" r:id="rId32" display="https://www.martinus.sk/knihy/vydavatelstvo/oikoymenh" xr:uid="{5BA79861-FFE1-4D53-AC6B-F5DB34D04D21}"/>
+    <hyperlink ref="D32" r:id="rId33" display="https://www.martinus.sk/authors/martin-heidegger" xr:uid="{0588E036-9A37-4523-85C9-0D9371B8529F}"/>
+    <hyperlink ref="E32" r:id="rId34" display="https://www.martinus.sk/l?categories%5B0%5D=6308" xr:uid="{4DF89998-37C8-4F18-A27A-364E1CC99D10}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/diplomovka/moja_praca/xml_data/book_moje.xlsx
+++ b/diplomovka/moja_praca/xml_data/book_moje.xlsx
@@ -2,18 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
-  <workbookPr/>
+  <workbookPr codeName="Tento_zošit"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repositories\FHI\diplomovka\moja_praca\xml_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84774496-172B-484C-B935-4C6376B1F410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBB0DD1-5308-4F1F-BAB1-7A915ED66676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
+    <sheet name="books_info" sheetId="1" r:id="rId1"/>
+    <sheet name="books_transaction" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,8 +52,30 @@
 </connections>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="168">
   <si>
     <t>id</t>
   </si>
@@ -541,11 +564,41 @@
   <si>
     <t>autori</t>
   </si>
+  <si>
+    <t>id_transakcie</t>
+  </si>
+  <si>
+    <t>id_knihy</t>
+  </si>
+  <si>
+    <t>dátum</t>
+  </si>
+  <si>
+    <t>typ_transakcie</t>
+  </si>
+  <si>
+    <t>množstvo</t>
+  </si>
+  <si>
+    <t>cena_za_jednotku</t>
+  </si>
+  <si>
+    <t>množstvo_na_sklade</t>
+  </si>
+  <si>
+    <t>celkovo_cena</t>
+  </si>
+  <si>
+    <t>nákup</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -581,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -590,20 +643,31 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálna" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
     <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
@@ -611,6 +675,10 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -699,13 +767,13 @@
     <tableColumn id="3" xr3:uid="{07A9CBA8-5E05-4316-92D7-3FD5A1AB37CC}" uniqueName="autor1" name="autor1">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/autori/autor1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{B31A0FAC-6DE2-4BAF-B138-5724D6736F77}" uniqueName="autor2" name="autor2" dataDxfId="4">
+    <tableColumn id="17" xr3:uid="{B31A0FAC-6DE2-4BAF-B138-5724D6736F77}" uniqueName="autor2" name="autor2" dataDxfId="6">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/autori/autor2" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{F675B580-B913-402B-A694-6B3E18248363}" uniqueName="kategoria" name="kategoria">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/kategoria" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{62078DAC-68E6-4060-B8F5-CC6481D4E49A}" uniqueName="isbn" name="isbn" dataDxfId="3">
+    <tableColumn id="5" xr3:uid="{62078DAC-68E6-4060-B8F5-CC6481D4E49A}" uniqueName="isbn" name="isbn" dataDxfId="5">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/isbn" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{2370E949-11A1-40B2-A50F-A24F715BBB39}" uniqueName="jazyk" name="jazyk">
@@ -726,14 +794,14 @@
     <tableColumn id="11" xr3:uid="{BC0B4BA2-AB81-411F-8A91-717F5AB1483E}" uniqueName="predajna_cena" name="predajna cena">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/predajna_cena" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{59FEB4DC-0A10-4490-9B50-17E73EE6A8E1}" uniqueName="nakupna_cena" name="nákupná cena" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{59FEB4DC-0A10-4490-9B50-17E73EE6A8E1}" uniqueName="nakupna_cena" name="nákupná cena" dataDxfId="4">
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/nakupna_cena" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{A6337F26-EA14-4E48-803C-2601C62E6E27}" uniqueName="marza" name="marža" dataDxfId="2">
+    <tableColumn id="13" xr3:uid="{A6337F26-EA14-4E48-803C-2601C62E6E27}" uniqueName="marza" name="marža" dataDxfId="3">
       <calculatedColumnFormula>(M5-N5)/N5</calculatedColumnFormula>
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/marza" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{71A65C89-6CF7-4DEA-AA4D-39DD0AE70C52}" uniqueName="zisk_kus" name="zisk_kus" dataDxfId="1">
+    <tableColumn id="14" xr3:uid="{71A65C89-6CF7-4DEA-AA4D-39DD0AE70C52}" uniqueName="zisk_kus" name="zisk_kus" dataDxfId="2">
       <calculatedColumnFormula>M5-N5</calculatedColumnFormula>
       <xmlColumnPr mapId="6" xpath="/Bookstore/books/book/zisk_kus" xmlDataType="string"/>
     </tableColumn>
@@ -1011,10 +1079,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Hárok1"/>
   <dimension ref="B3:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1038,10 +1107,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4" spans="2:18" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -1131,7 +1200,7 @@
       <c r="M5" s="1">
         <v>11.9</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <v>8.25</v>
       </c>
       <c r="O5" s="3">
@@ -1184,7 +1253,7 @@
       <c r="M6" s="1">
         <v>16.11</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <v>10.25</v>
       </c>
       <c r="O6" s="3">
@@ -1237,7 +1306,7 @@
       <c r="M7" s="1">
         <v>9.64</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="4">
         <v>6.24</v>
       </c>
       <c r="O7" s="3">
@@ -1290,7 +1359,7 @@
       <c r="M8" s="1">
         <v>16</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="4">
         <v>8.36</v>
       </c>
       <c r="O8" s="3">
@@ -1343,7 +1412,7 @@
       <c r="M9" s="1">
         <v>15.56</v>
       </c>
-      <c r="N9" s="5">
+      <c r="N9" s="4">
         <v>8.2899999999999991</v>
       </c>
       <c r="O9" s="3">
@@ -1396,7 +1465,7 @@
       <c r="M10" s="1">
         <v>13.24</v>
       </c>
-      <c r="N10" s="5">
+      <c r="N10" s="4">
         <v>9.35</v>
       </c>
       <c r="O10" s="3">
@@ -1449,7 +1518,7 @@
       <c r="M11" s="1">
         <v>14.75</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="4">
         <v>8.56</v>
       </c>
       <c r="O11" s="3">
@@ -1502,7 +1571,7 @@
       <c r="M12" s="1">
         <v>17.89</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <v>10.99</v>
       </c>
       <c r="O12" s="3">
@@ -1555,7 +1624,7 @@
       <c r="M13" s="1">
         <v>41</v>
       </c>
-      <c r="N13" s="5">
+      <c r="N13" s="4">
         <v>25.99</v>
       </c>
       <c r="O13" s="3">
@@ -1610,7 +1679,7 @@
       <c r="M14" s="1">
         <v>18.5</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="4">
         <v>11.89</v>
       </c>
       <c r="O14" s="3">
@@ -1663,7 +1732,7 @@
       <c r="M15" s="1">
         <v>5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="4">
         <v>3.26</v>
       </c>
       <c r="O15" s="3">
@@ -1716,7 +1785,7 @@
       <c r="M16" s="1">
         <v>13.25</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="4">
         <v>7.69</v>
       </c>
       <c r="O16" s="3">
@@ -1769,7 +1838,7 @@
       <c r="M17" s="1">
         <v>14.95</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="4">
         <v>8.89</v>
       </c>
       <c r="O17" s="3">
@@ -1822,7 +1891,7 @@
       <c r="M18" s="1">
         <v>7.8</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <v>5.68</v>
       </c>
       <c r="O18" s="3">
@@ -1875,7 +1944,7 @@
       <c r="M19" s="1">
         <v>9.65</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="4">
         <v>4.5</v>
       </c>
       <c r="O19" s="3">
@@ -1928,7 +1997,7 @@
       <c r="M20" s="1">
         <v>14.49</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="4">
         <v>7.68</v>
       </c>
       <c r="O20" s="3">
@@ -1981,7 +2050,7 @@
       <c r="M21" s="1">
         <v>14.46</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="4">
         <v>7.58</v>
       </c>
       <c r="O21" s="3">
@@ -2034,7 +2103,7 @@
       <c r="M22" s="1">
         <v>13.99</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="4">
         <v>6.89</v>
       </c>
       <c r="O22" s="3">
@@ -2087,7 +2156,7 @@
       <c r="M23" s="1">
         <v>14.17</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="4">
         <v>9.16</v>
       </c>
       <c r="O23" s="3">
@@ -2140,7 +2209,7 @@
       <c r="M24" s="1">
         <v>10.050000000000001</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="4">
         <v>6.29</v>
       </c>
       <c r="O24" s="3">
@@ -2193,7 +2262,7 @@
       <c r="M25" s="1">
         <v>22.5</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="4">
         <v>14.17</v>
       </c>
       <c r="O25" s="3">
@@ -2246,7 +2315,7 @@
       <c r="M26" s="1">
         <v>22.58</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="4">
         <v>12.56</v>
       </c>
       <c r="O26" s="3">
@@ -2299,7 +2368,7 @@
       <c r="M27" s="1">
         <v>22.55</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="4">
         <v>9.65</v>
       </c>
       <c r="O27" s="3">
@@ -2354,7 +2423,7 @@
       <c r="M28" s="1">
         <v>18.98</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="4" t="s">
         <v>148</v>
       </c>
       <c r="O28" s="3">
@@ -2407,7 +2476,7 @@
       <c r="M29" s="1">
         <v>14.95</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="4" t="s">
         <v>149</v>
       </c>
       <c r="O29" s="3">
@@ -2460,7 +2529,7 @@
       <c r="M30" s="1">
         <v>12.85</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="4">
         <v>8.89</v>
       </c>
       <c r="O30" s="3">
@@ -2513,7 +2582,7 @@
       <c r="M31" s="1">
         <v>16.36</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="4">
         <v>8.89</v>
       </c>
       <c r="O31" s="3">
@@ -2566,7 +2635,7 @@
       <c r="M32" s="1">
         <v>14.38</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="4">
         <v>6.9</v>
       </c>
       <c r="O32" s="3">
@@ -2619,7 +2688,7 @@
       <c r="M33" s="1">
         <v>24.99</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="4" t="s">
         <v>150</v>
       </c>
       <c r="O33" s="3">
@@ -2674,7 +2743,7 @@
       <c r="M34" s="1">
         <v>11.5</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="4" t="s">
         <v>151</v>
       </c>
       <c r="O34" s="3">
@@ -2703,4 +2772,2387 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B89760-21C7-4F5C-AB33-B3BDDF17310F}">
+  <dimension ref="A6:K163"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A132" sqref="A132"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" t="s">
+        <v>161</v>
+      </c>
+      <c r="G6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H6" t="s">
+        <v>163</v>
+      </c>
+      <c r="I6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H7">
+        <v>50</v>
+      </c>
+      <c r="I7">
+        <f>IF(G7="nákup",VLOOKUP(E7,Tabuľka6[#All],12,FALSE),IF(G7="predaj",VLOOKUP(E7,Tabuľka6[#All],13,FALSE),"zadany neplatny typ transakie"))</f>
+        <v>11.9</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ref="J7:J37" si="0">H7*I7</f>
+        <v>595</v>
+      </c>
+      <c r="K7">
+        <f>SUMIF($E$7:E7,E7,$H$7:H7)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8">
+        <v>30</v>
+      </c>
+      <c r="I8" cm="1">
+        <f t="array" ref="I8">IF(G8="nákup",VLOOKUP(E8,Tabuľka6[#All],12,FALSE),IF(G8="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>16.11</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>483.29999999999995</v>
+      </c>
+      <c r="K8">
+        <f>SUMIF($E$7:E8,E8,$H$7:H8)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H9">
+        <v>20</v>
+      </c>
+      <c r="I9" cm="1">
+        <f t="array" ref="I9">IF(G9="nákup",VLOOKUP(E9,Tabuľka6[#All],12,FALSE),IF(G9="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>9.64</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>192.8</v>
+      </c>
+      <c r="K9">
+        <f>SUMIF($E$7:E9,E9,$H$7:H9)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G10" t="s">
+        <v>167</v>
+      </c>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="I10" cm="1">
+        <f t="array" ref="I10">IF(G10="nákup",VLOOKUP(E10,Tabuľka6[#All],12,FALSE),IF(G10="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>16</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="K10">
+        <f>SUMIF($E$7:E10,E10,$H$7:H10)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11">
+        <v>60</v>
+      </c>
+      <c r="I11" cm="1">
+        <f t="array" ref="I11">IF(G11="nákup",VLOOKUP(E11,Tabuľka6[#All],12,FALSE),IF(G11="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>15.56</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>933.6</v>
+      </c>
+      <c r="K11">
+        <f>SUMIF($E$7:E11,E11,$H$7:H11)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G12" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12">
+        <v>40</v>
+      </c>
+      <c r="I12" cm="1">
+        <f t="array" ref="I12">IF(G12="nákup",VLOOKUP(E12,Tabuľka6[#All],12,FALSE),IF(G12="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>13.24</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>529.6</v>
+      </c>
+      <c r="K12">
+        <f>SUMIF($E$7:E12,E12,$H$7:H12)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G13" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13">
+        <v>30</v>
+      </c>
+      <c r="I13" cm="1">
+        <f t="array" ref="I13">IF(G13="nákup",VLOOKUP(E13,Tabuľka6[#All],12,FALSE),IF(G13="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.75</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>442.5</v>
+      </c>
+      <c r="K13">
+        <f>SUMIF($E$7:E13,E13,$H$7:H13)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
+      </c>
+      <c r="I14" cm="1">
+        <f t="array" ref="I14">IF(G14="nákup",VLOOKUP(E14,Tabuľka6[#All],12,FALSE),IF(G14="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>17.89</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>894.5</v>
+      </c>
+      <c r="K14">
+        <f>SUMIF($E$7:E14,E14,$H$7:H14)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>9</v>
+      </c>
+      <c r="F15" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G15" t="s">
+        <v>167</v>
+      </c>
+      <c r="H15">
+        <v>20</v>
+      </c>
+      <c r="I15" cm="1">
+        <f t="array" ref="I15">IF(G15="nákup",VLOOKUP(E15,Tabuľka6[#All],12,FALSE),IF(G15="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>820</v>
+      </c>
+      <c r="K15">
+        <f>SUMIF($E$7:E15,E15,$H$7:H15)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="F16" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G16" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16">
+        <v>60</v>
+      </c>
+      <c r="I16" cm="1">
+        <f t="array" ref="I16">IF(G16="nákup",VLOOKUP(E16,Tabuľka6[#All],12,FALSE),IF(G16="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>18.5</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>1110</v>
+      </c>
+      <c r="K16">
+        <f>SUMIF($E$7:E16,E16,$H$7:H16)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>11</v>
+      </c>
+      <c r="F17" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17">
+        <v>30</v>
+      </c>
+      <c r="I17" cm="1">
+        <f t="array" ref="I17">IF(G17="nákup",VLOOKUP(E17,Tabuľka6[#All],12,FALSE),IF(G17="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>5</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <f>SUMIF($E$7:E17,E17,$H$7:H17)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>12</v>
+      </c>
+      <c r="E18">
+        <v>12</v>
+      </c>
+      <c r="F18" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18" cm="1">
+        <f t="array" ref="I18">IF(G18="nákup",VLOOKUP(E18,Tabuľka6[#All],12,FALSE),IF(G18="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>13.25</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>662.5</v>
+      </c>
+      <c r="K18">
+        <f>SUMIF($E$7:E18,E18,$H$7:H18)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>13</v>
+      </c>
+      <c r="E19">
+        <v>13</v>
+      </c>
+      <c r="F19" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G19" t="s">
+        <v>167</v>
+      </c>
+      <c r="H19">
+        <v>40</v>
+      </c>
+      <c r="I19" cm="1">
+        <f t="array" ref="I19">IF(G19="nákup",VLOOKUP(E19,Tabuľka6[#All],12,FALSE),IF(G19="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.95</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>598</v>
+      </c>
+      <c r="K19">
+        <f>SUMIF($E$7:E19,E19,$H$7:H19)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>14</v>
+      </c>
+      <c r="E20">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G20" t="s">
+        <v>167</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" cm="1">
+        <f t="array" ref="I20">IF(G20="nákup",VLOOKUP(E20,Tabuľka6[#All],12,FALSE),IF(G20="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>7.8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="K20">
+        <f>SUMIF($E$7:E20,E20,$H$7:H20)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>15</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G21" t="s">
+        <v>167</v>
+      </c>
+      <c r="H21">
+        <v>60</v>
+      </c>
+      <c r="I21" cm="1">
+        <f t="array" ref="I21">IF(G21="nákup",VLOOKUP(E21,Tabuľka6[#All],12,FALSE),IF(G21="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>9.65</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>579</v>
+      </c>
+      <c r="K21">
+        <f>SUMIF($E$7:E21,E21,$H$7:H21)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22">
+        <v>70</v>
+      </c>
+      <c r="I22" cm="1">
+        <f t="array" ref="I22">IF(G22="nákup",VLOOKUP(E22,Tabuľka6[#All],12,FALSE),IF(G22="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.49</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>1014.3000000000001</v>
+      </c>
+      <c r="K22">
+        <f>SUMIF($E$7:E22,E22,$H$7:H22)</f>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23">
+        <v>30</v>
+      </c>
+      <c r="I23" cm="1">
+        <f t="array" ref="I23">IF(G23="nákup",VLOOKUP(E23,Tabuľka6[#All],12,FALSE),IF(G23="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.46</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>433.8</v>
+      </c>
+      <c r="K23">
+        <f>SUMIF($E$7:E23,E23,$H$7:H23)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24">
+        <v>45</v>
+      </c>
+      <c r="I24" cm="1">
+        <f t="array" ref="I24">IF(G24="nákup",VLOOKUP(E24,Tabuľka6[#All],12,FALSE),IF(G24="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>13.99</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>629.54999999999995</v>
+      </c>
+      <c r="K24">
+        <f>SUMIF($E$7:E24,E24,$H$7:H24)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>19</v>
+      </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G25" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25">
+        <v>35</v>
+      </c>
+      <c r="I25" cm="1">
+        <f t="array" ref="I25">IF(G25="nákup",VLOOKUP(E25,Tabuľka6[#All],12,FALSE),IF(G25="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.17</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>495.95</v>
+      </c>
+      <c r="K25">
+        <f>SUMIF($E$7:E25,E25,$H$7:H25)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26">
+        <v>25</v>
+      </c>
+      <c r="I26" cm="1">
+        <f t="array" ref="I26">IF(G26="nákup",VLOOKUP(E26,Tabuľka6[#All],12,FALSE),IF(G26="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>10.050000000000001</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>251.25000000000003</v>
+      </c>
+      <c r="K26">
+        <f>SUMIF($E$7:E26,E26,$H$7:H26)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G27" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27">
+        <v>30</v>
+      </c>
+      <c r="I27" cm="1">
+        <f t="array" ref="I27">IF(G27="nákup",VLOOKUP(E27,Tabuľka6[#All],12,FALSE),IF(G27="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>22.5</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="K27">
+        <f>SUMIF($E$7:E27,E27,$H$7:H27)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>22</v>
+      </c>
+      <c r="F28" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28">
+        <v>55</v>
+      </c>
+      <c r="I28" cm="1">
+        <f t="array" ref="I28">IF(G28="nákup",VLOOKUP(E28,Tabuľka6[#All],12,FALSE),IF(G28="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>22.58</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>1241.8999999999999</v>
+      </c>
+      <c r="K28">
+        <f>SUMIF($E$7:E28,E28,$H$7:H28)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>23</v>
+      </c>
+      <c r="F29" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29">
+        <v>80</v>
+      </c>
+      <c r="I29" cm="1">
+        <f t="array" ref="I29">IF(G29="nákup",VLOOKUP(E29,Tabuľka6[#All],12,FALSE),IF(G29="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>22.55</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1804</v>
+      </c>
+      <c r="K29">
+        <f>SUMIF($E$7:E29,E29,$H$7:H29)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>24</v>
+      </c>
+      <c r="F30" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30">
+        <v>35</v>
+      </c>
+      <c r="I30" cm="1">
+        <f t="array" ref="I30">IF(G30="nákup",VLOOKUP(E30,Tabuľka6[#All],12,FALSE),IF(G30="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>18.98</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>664.30000000000007</v>
+      </c>
+      <c r="K30">
+        <f>SUMIF($E$7:E30,E30,$H$7:H30)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>25</v>
+      </c>
+      <c r="F31" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G31" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31">
+        <v>25</v>
+      </c>
+      <c r="I31" cm="1">
+        <f t="array" ref="I31">IF(G31="nákup",VLOOKUP(E31,Tabuľka6[#All],12,FALSE),IF(G31="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.95</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>373.75</v>
+      </c>
+      <c r="K31">
+        <f>SUMIF($E$7:E31,E31,$H$7:H31)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>26</v>
+      </c>
+      <c r="E32">
+        <v>26</v>
+      </c>
+      <c r="F32" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G32" t="s">
+        <v>167</v>
+      </c>
+      <c r="H32">
+        <v>35</v>
+      </c>
+      <c r="I32" cm="1">
+        <f t="array" ref="I32">IF(G32="nákup",VLOOKUP(E32,Tabuľka6[#All],12,FALSE),IF(G32="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>12.85</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>449.75</v>
+      </c>
+      <c r="K32">
+        <f>SUMIF($E$7:E32,E32,$H$7:H32)</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>27</v>
+      </c>
+      <c r="E33">
+        <v>27</v>
+      </c>
+      <c r="F33" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H33">
+        <v>45</v>
+      </c>
+      <c r="I33" cm="1">
+        <f t="array" ref="I33">IF(G33="nákup",VLOOKUP(E33,Tabuľka6[#All],12,FALSE),IF(G33="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>16.36</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>736.19999999999993</v>
+      </c>
+      <c r="K33">
+        <f>SUMIF($E$7:E33,E33,$H$7:H33)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>28</v>
+      </c>
+      <c r="E34">
+        <v>28</v>
+      </c>
+      <c r="F34" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H34">
+        <v>25</v>
+      </c>
+      <c r="I34" cm="1">
+        <f t="array" ref="I34">IF(G34="nákup",VLOOKUP(E34,Tabuľka6[#All],12,FALSE),IF(G34="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>14.38</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>359.5</v>
+      </c>
+      <c r="K34">
+        <f>SUMIF($E$7:E34,E34,$H$7:H34)</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>29</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+      <c r="F35" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G35" t="s">
+        <v>167</v>
+      </c>
+      <c r="H35">
+        <v>55</v>
+      </c>
+      <c r="I35" cm="1">
+        <f t="array" ref="I35">IF(G35="nákup",VLOOKUP(E35,Tabuľka6[#All],12,FALSE),IF(G35="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>24.99</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>1374.4499999999998</v>
+      </c>
+      <c r="K35">
+        <f>SUMIF($E$7:E35,E35,$H$7:H35)</f>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36" s="6">
+        <v>43838</v>
+      </c>
+      <c r="G36" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36">
+        <v>60</v>
+      </c>
+      <c r="I36" cm="1">
+        <f t="array" ref="I36">IF(G36="nákup",VLOOKUP(E36,Tabuľka6[#All],12,FALSE),IF(G36="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>11.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="K36">
+        <f>SUMIF($E$7:E36,E36,$H$7:H36)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>31</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" s="6">
+        <v>43839</v>
+      </c>
+      <c r="G37" t="s">
+        <v>167</v>
+      </c>
+      <c r="H37">
+        <v>60</v>
+      </c>
+      <c r="I37" cm="1">
+        <f t="array" ref="I37">IF(G37="nákup",VLOOKUP(E37,Tabuľka6[#All],12,FALSE),IF(G37="predaj",VLOOKUP(Tabuľka6[#All],13,FALSE),zadany neplatny typ transakie))</f>
+        <v>11.9</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>714</v>
+      </c>
+      <c r="K37">
+        <f>SUMIF($E$7:E37,E37,$H$7:H37)</f>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>43839</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="K38">
+        <f>SUMIF($E$7:E38,E38,$H$7:H38)</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>33</v>
+      </c>
+      <c r="F39" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K39">
+        <f t="shared" ref="K39:K71" si="1">SUMIF(E39:E68,E39,H39:H68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>34</v>
+      </c>
+      <c r="F40" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>35</v>
+      </c>
+      <c r="F41" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>36</v>
+      </c>
+      <c r="F42" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>37</v>
+      </c>
+      <c r="F43" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>38</v>
+      </c>
+      <c r="F44" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>39</v>
+      </c>
+      <c r="F45" s="6">
+        <v>43839</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>40</v>
+      </c>
+      <c r="F46" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>41</v>
+      </c>
+      <c r="F47" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>42</v>
+      </c>
+      <c r="F48" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>43</v>
+      </c>
+      <c r="F49" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>44</v>
+      </c>
+      <c r="F50" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>45</v>
+      </c>
+      <c r="F51" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>46</v>
+      </c>
+      <c r="F52" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>47</v>
+      </c>
+      <c r="F53" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>48</v>
+      </c>
+      <c r="F54" s="6">
+        <v>43840</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>49</v>
+      </c>
+      <c r="F55" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>50</v>
+      </c>
+      <c r="F56" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>51</v>
+      </c>
+      <c r="F57" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>52</v>
+      </c>
+      <c r="F58" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>53</v>
+      </c>
+      <c r="F59" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>54</v>
+      </c>
+      <c r="F60" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>55</v>
+      </c>
+      <c r="F61" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>56</v>
+      </c>
+      <c r="F62" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>57</v>
+      </c>
+      <c r="F63" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>58</v>
+      </c>
+      <c r="F64" s="6">
+        <v>43841</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>59</v>
+      </c>
+      <c r="F65" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>60</v>
+      </c>
+      <c r="F66" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>61</v>
+      </c>
+      <c r="F67" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>62</v>
+      </c>
+      <c r="F68" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>29</v>
+      </c>
+      <c r="F69" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>30</v>
+      </c>
+      <c r="F70" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>31</v>
+      </c>
+      <c r="F71" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>32</v>
+      </c>
+      <c r="F72" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K72">
+        <f t="shared" ref="K72:K127" si="2">SUMIF(E72:E101,E72,H72:H101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>33</v>
+      </c>
+      <c r="F73" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>34</v>
+      </c>
+      <c r="F74" s="6">
+        <v>43842</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="F75" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>36</v>
+      </c>
+      <c r="F76" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>37</v>
+      </c>
+      <c r="F77" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>38</v>
+      </c>
+      <c r="F78" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>39</v>
+      </c>
+      <c r="F79" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>40</v>
+      </c>
+      <c r="F80" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>41</v>
+      </c>
+      <c r="F81" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>42</v>
+      </c>
+      <c r="F82" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>43</v>
+      </c>
+      <c r="F83" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>44</v>
+      </c>
+      <c r="F84" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>45</v>
+      </c>
+      <c r="F85" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <v>46</v>
+      </c>
+      <c r="F86" s="6">
+        <v>43843</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D87">
+        <v>47</v>
+      </c>
+      <c r="F87" s="6">
+        <v>43844</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D88">
+        <v>48</v>
+      </c>
+      <c r="F88" s="6">
+        <v>43844</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D89">
+        <v>49</v>
+      </c>
+      <c r="F89" s="6">
+        <v>43844</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <v>50</v>
+      </c>
+      <c r="F90" s="6">
+        <v>43844</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D91">
+        <v>51</v>
+      </c>
+      <c r="F91" s="6">
+        <v>43845</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D92">
+        <v>52</v>
+      </c>
+      <c r="F92" s="6">
+        <v>43845</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D93">
+        <v>53</v>
+      </c>
+      <c r="F93" s="6">
+        <v>43845</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D94">
+        <v>54</v>
+      </c>
+      <c r="F94" s="6">
+        <v>43845</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <v>55</v>
+      </c>
+      <c r="F95" s="6">
+        <v>43845</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D96">
+        <v>56</v>
+      </c>
+      <c r="F96" s="6">
+        <v>43846</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D97">
+        <v>57</v>
+      </c>
+      <c r="F97" s="6">
+        <v>43846</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D98">
+        <v>58</v>
+      </c>
+      <c r="F98" s="6">
+        <v>43846</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D99">
+        <v>59</v>
+      </c>
+      <c r="F99" s="6">
+        <v>43846</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D100">
+        <v>60</v>
+      </c>
+      <c r="F100" s="6">
+        <v>43846</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D101">
+        <v>61</v>
+      </c>
+      <c r="F101" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <v>62</v>
+      </c>
+      <c r="F102" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D103">
+        <v>63</v>
+      </c>
+      <c r="F103" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D104">
+        <v>64</v>
+      </c>
+      <c r="F104" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D105">
+        <v>65</v>
+      </c>
+      <c r="F105" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D106">
+        <v>66</v>
+      </c>
+      <c r="F106" s="6">
+        <v>43847</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <v>67</v>
+      </c>
+      <c r="F107" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D108">
+        <v>68</v>
+      </c>
+      <c r="F108" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D109">
+        <v>69</v>
+      </c>
+      <c r="F109" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D110">
+        <v>70</v>
+      </c>
+      <c r="F110" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D111">
+        <v>71</v>
+      </c>
+      <c r="F111" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D112">
+        <v>72</v>
+      </c>
+      <c r="F112" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D113">
+        <v>73</v>
+      </c>
+      <c r="F113" s="6">
+        <v>43848</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D114">
+        <v>74</v>
+      </c>
+      <c r="F114" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:1)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D115">
+        <v>75</v>
+      </c>
+      <c r="F115" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:2)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D116">
+        <v>76</v>
+      </c>
+      <c r="F116" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:3)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D117">
+        <v>77</v>
+      </c>
+      <c r="F117" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:4)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D118">
+        <v>78</v>
+      </c>
+      <c r="F118" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:5)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <v>79</v>
+      </c>
+      <c r="F119" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:6)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D120">
+        <v>80</v>
+      </c>
+      <c r="F120" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:7)/8))</f>
+        <v>43849</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D121">
+        <v>81</v>
+      </c>
+      <c r="F121" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:8)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D122">
+        <v>82</v>
+      </c>
+      <c r="F122" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:9)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D123">
+        <v>83</v>
+      </c>
+      <c r="F123" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:10)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D124">
+        <v>84</v>
+      </c>
+      <c r="F124" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:11)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D125">
+        <v>85</v>
+      </c>
+      <c r="F125" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:12)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D126">
+        <v>86</v>
+      </c>
+      <c r="F126" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:13)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D127">
+        <v>87</v>
+      </c>
+      <c r="F127" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:14)/8))</f>
+        <v>43850</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <f>ROWS(C126:C132)</f>
+        <v>7</v>
+      </c>
+      <c r="D128">
+        <v>88</v>
+      </c>
+      <c r="F128" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:15)/8))</f>
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D129">
+        <v>89</v>
+      </c>
+      <c r="F129" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:16)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D130">
+        <v>90</v>
+      </c>
+      <c r="F130" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:17)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D131">
+        <v>91</v>
+      </c>
+      <c r="F131" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:18)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <f>INT(ROWS($1:1)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>92</v>
+      </c>
+      <c r="F132" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:19)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <f>INT(ROWS($1:2)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>93</v>
+      </c>
+      <c r="F133" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:20)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <f>INT(ROWS($1:3)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>94</v>
+      </c>
+      <c r="F134" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:21)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <f>INT(ROWS($1:4)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>95</v>
+      </c>
+      <c r="F135" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:22)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <f>INT(ROWS($1:5)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>96</v>
+      </c>
+      <c r="F136" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:23)/8))</f>
+        <v>43851</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <f>INT(ROWS($1:6)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>97</v>
+      </c>
+      <c r="F137" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:24)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <f>INT(ROWS($1:7)/8)</f>
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>98</v>
+      </c>
+      <c r="F138" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:25)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <f>INT(ROWS($1:8)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="D139">
+        <v>99</v>
+      </c>
+      <c r="F139" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:26)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <f>INT(ROWS($1:9)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="D140">
+        <v>100</v>
+      </c>
+      <c r="F140" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:27)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <f>INT(ROWS($1:10)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="F141" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:28)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <f>INT(ROWS($1:11)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="F142" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:29)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <f>INT(ROWS($1:12)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="F143" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:30)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <f>INT(ROWS($1:13)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="F144" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:31)/8))</f>
+        <v>43852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <f>INT(ROWS($1:14)/8)</f>
+        <v>1</v>
+      </c>
+      <c r="F145" s="6">
+        <f>DATE(2020,1,19+INT(ROWS($1:32)/8))</f>
+        <v>43853</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <f>INT(ROWS($1:15)/8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <f>INT(ROWS($1:16)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <f>INT(ROWS($1:17)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <f>INT(ROWS($1:18)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <f>INT(ROWS($1:19)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <f>INT(ROWS($1:20)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <f>INT(ROWS($1:21)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <f>INT(ROWS($1:22)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <f>INT(ROWS($1:23)/8)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <f>INT(ROWS($1:24)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <f>INT(ROWS($1:25)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <f>INT(ROWS($1:26)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <f>INT(ROWS($1:27)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <f>INT(ROWS($1:28)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <f>INT(ROWS($1:29)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <f>INT(ROWS($1:30)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <f>INT(ROWS($1:31)/8)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <f>INT(ROWS($1:32)/8)</f>
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J7:J37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>G7="predaj"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>G7="nákup"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6 G8:G140" xr:uid="{D781AC0D-0A3C-424D-8D4E-2ACF09ED5E19}">
+      <formula1>"nákup,predaj"</formula1>
+    </dataValidation>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G7" xr:uid="{54CA2BA5-1AC2-474E-9A6F-7F07289DBEEC}">
+      <formula1>"nákup,predaj"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>